--- a/mc_probabilities.xlsx
+++ b/mc_probabilities.xlsx
@@ -49,6 +49,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -108,8 +109,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -133,127 +138,77 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:F6"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/mc_probabilities.xlsx
+++ b/mc_probabilities.xlsx
@@ -109,13 +109,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -138,10 +142,10 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -164,51 +168,101 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.2</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
